--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>firstName</t>
   </si>
@@ -36,6 +36,45 @@
     <t>password</t>
   </si>
   <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>john.doe@example.com</t>
+  </si>
+  <si>
+    <t>Password123</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>98765ppp21</t>
+  </si>
+  <si>
+    <t>jane.smith@example.com</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>11223355pp</t>
+  </si>
+  <si>
+    <t>alice.brown@</t>
+  </si>
+  <si>
+    <t>Alice1234</t>
+  </si>
+  <si>
     <t>Ngan</t>
   </si>
   <si>
@@ -43,6 +82,12 @@
   </si>
   <si>
     <t>pass123</t>
+  </si>
+  <si>
+    <t>Thuy</t>
+  </si>
+  <si>
+    <t>thuythuy22012001@gmail.com</t>
   </si>
   <si>
     <t>nganngan27012003@gmail.com</t>
@@ -120,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -130,6 +175,15 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -457,8 +511,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="45.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="26.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="45.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="26.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
@@ -470,51 +524,51 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="33" customFormat="1" s="1">
-      <c r="A2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>10</v>
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
+      <c r="A3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
+      <c r="A4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
+      <c r="A5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
+      <c r="A6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5" customFormat="1" s="1">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
+      <c r="A7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -527,18 +581,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="35.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="35.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="19.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
@@ -561,24 +615,104 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" s="6">
         <v>1234567890</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1234567890</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1234567890</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
